--- a/Nado Game/gui_project/수용가감면세대 상세내역(중증장애인감면&독립유공자감면)_20220512 강남데시앙파크.xlsx
+++ b/Nado Game/gui_project/수용가감면세대 상세내역(중증장애인감면&독립유공자감면)_20220512 강남데시앙파크.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\과장\1 1 부과자료\2022년\202205월\수도감면자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A05C1-F9AF-46D8-931E-535EB859E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1320" windowWidth="21345" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="수용가 감면 내역(중증장애인감면)" sheetId="1" r:id="rId1"/>
@@ -40,6 +39,9 @@
     <t>501동 401호</t>
   </si>
   <si>
+    <t>502동 604호 (세곡동, 강남데시앙파크)</t>
+  </si>
+  <si>
     <t>502동 804호</t>
   </si>
   <si>
@@ -64,6 +66,9 @@
     <t>511동 104호</t>
   </si>
   <si>
+    <t>511동 301호 (세곡동, 강남데시앙파크)</t>
+  </si>
+  <si>
     <t>511동 601호</t>
   </si>
   <si>
@@ -74,21 +79,13 @@
   </si>
   <si>
     <t>514동 803호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>502동 604호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>511동 301호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -491,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -535,7 +532,7 @@
         <v>36436655</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -546,7 +543,7 @@
         <v>36436655</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -557,7 +554,7 @@
         <v>36436655</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -568,7 +565,7 @@
         <v>36436655</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -579,7 +576,7 @@
         <v>36436655</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -590,7 +587,7 @@
         <v>36436655</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -601,7 +598,7 @@
         <v>36436655</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -612,7 +609,7 @@
         <v>36436655</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -623,7 +620,7 @@
         <v>36436655</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -634,7 +631,7 @@
         <v>36436655</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,7 +642,7 @@
         <v>36436655</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -656,7 +653,7 @@
         <v>36436655</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +664,7 @@
         <v>36436655</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -678,10 +675,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +707,7 @@
         <v>36436655</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Nado Game/gui_project/수용가감면세대 상세내역(중증장애인감면&독립유공자감면)_20220512 강남데시앙파크.xlsx
+++ b/Nado Game/gui_project/수용가감면세대 상세내역(중증장애인감면&독립유공자감면)_20220512 강남데시앙파크.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\gui_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C120C-2A65-4C31-A0CD-50B4F01998C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="12615" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수용가 감면 내역(중증장애인감면)" sheetId="1" r:id="rId1"/>
@@ -39,9 +40,6 @@
     <t>501동 401호</t>
   </si>
   <si>
-    <t>502동 604호 (세곡동, 강남데시앙파크)</t>
-  </si>
-  <si>
     <t>502동 804호</t>
   </si>
   <si>
@@ -66,9 +64,6 @@
     <t>511동 104호</t>
   </si>
   <si>
-    <t>511동 301호 (세곡동, 강남데시앙파크)</t>
-  </si>
-  <si>
     <t>511동 601호</t>
   </si>
   <si>
@@ -79,13 +74,21 @@
   </si>
   <si>
     <t>514동 803호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>502동 604호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>511동 301호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -488,18 +491,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="3" max="3" width="41.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -532,7 +535,7 @@
         <v>36436655</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -543,7 +546,7 @@
         <v>36436655</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -554,7 +557,7 @@
         <v>36436655</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -565,7 +568,7 @@
         <v>36436655</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -576,7 +579,7 @@
         <v>36436655</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -587,7 +590,7 @@
         <v>36436655</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -598,7 +601,7 @@
         <v>36436655</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -609,7 +612,7 @@
         <v>36436655</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -620,7 +623,7 @@
         <v>36436655</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -631,7 +634,7 @@
         <v>36436655</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -642,7 +645,7 @@
         <v>36436655</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -653,7 +656,7 @@
         <v>36436655</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -664,7 +667,7 @@
         <v>36436655</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -675,16 +678,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,7 +710,7 @@
         <v>36436655</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Nado Game/gui_project/수용가감면세대 상세내역(중증장애인감면&독립유공자감면)_20220512 강남데시앙파크.xlsx
+++ b/Nado Game/gui_project/수용가감면세대 상세내역(중증장애인감면&독립유공자감면)_20220512 강남데시앙파크.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pygame\Nado Game\gui_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C120C-2A65-4C31-A0CD-50B4F01998C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13335" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="수용가 감면 내역(중증장애인감면)" sheetId="1" r:id="rId1"/>
@@ -40,6 +39,9 @@
     <t>501동 401호</t>
   </si>
   <si>
+    <t>502동 604호 (세곡동, 강남데시앙파크)</t>
+  </si>
+  <si>
     <t>502동 804호</t>
   </si>
   <si>
@@ -64,6 +66,9 @@
     <t>511동 104호</t>
   </si>
   <si>
+    <t>511동 301호 (세곡동, 강남데시앙파크)</t>
+  </si>
+  <si>
     <t>511동 601호</t>
   </si>
   <si>
@@ -74,21 +79,13 @@
   </si>
   <si>
     <t>514동 803호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>502동 604호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>511동 301호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -491,18 +488,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
-    <col min="3" max="3" width="41.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -535,7 +532,7 @@
         <v>36436655</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -546,7 +543,7 @@
         <v>36436655</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -557,7 +554,7 @@
         <v>36436655</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -568,7 +565,7 @@
         <v>36436655</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -579,7 +576,7 @@
         <v>36436655</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -590,7 +587,7 @@
         <v>36436655</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -601,7 +598,7 @@
         <v>36436655</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -612,7 +609,7 @@
         <v>36436655</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -623,7 +620,7 @@
         <v>36436655</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -634,7 +631,7 @@
         <v>36436655</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -645,7 +642,7 @@
         <v>36436655</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -656,7 +653,7 @@
         <v>36436655</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -667,7 +664,7 @@
         <v>36436655</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -678,16 +675,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
@@ -710,7 +707,7 @@
         <v>36436655</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
